--- a/MT9V024IA7XTM/РАСПИНОВКА.xlsx
+++ b/MT9V024IA7XTM/РАСПИНОВКА.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8301ADF3-882C-483A-9843-26FD32E88A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79AD8344-3D53-4B0F-8FF6-96656A0EDB57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="45" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -167,13 +167,13 @@
     <t>3,3_VAA</t>
   </si>
   <si>
-    <t>3,3_SVDDLVDS</t>
-  </si>
-  <si>
     <t>3,3_VAAPIX</t>
   </si>
   <si>
     <t>D5</t>
+  </si>
+  <si>
+    <t>3,3_VDDLVDS</t>
   </si>
 </sst>
 </file>
@@ -319,17 +319,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -638,7 +638,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,10 +651,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="14"/>
+      <c r="B1" s="15"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
     </row>
@@ -665,17 +665,17 @@
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="15"/>
+      <c r="C2" s="12"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="12" t="s">
+      <c r="I2" s="14"/>
+      <c r="J2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="13"/>
+      <c r="K2" s="14"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -684,7 +684,7 @@
       <c r="B3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="12">
         <v>0</v>
       </c>
       <c r="D3" s="2"/>
@@ -706,7 +706,7 @@
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="12">
         <v>1</v>
       </c>
       <c r="D4" s="2"/>
@@ -715,20 +715,20 @@
         <v>1</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J4" s="5">
         <v>1</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="12">
         <v>2</v>
       </c>
       <c r="D5" s="2"/>
@@ -746,7 +746,7 @@
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="12">
         <v>3</v>
       </c>
       <c r="D6" s="2"/>
@@ -763,7 +763,7 @@
       <c r="B7" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="12">
         <v>4</v>
       </c>
       <c r="D7" s="2"/>
@@ -780,7 +780,7 @@
       <c r="B8" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="12">
         <v>5</v>
       </c>
       <c r="D8" s="2"/>
@@ -797,7 +797,7 @@
       <c r="B9" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="12">
         <v>6</v>
       </c>
       <c r="D9" s="2"/>
@@ -814,7 +814,7 @@
       <c r="B10" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="12">
         <v>7</v>
       </c>
       <c r="D10" s="2"/>
@@ -847,7 +847,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="C13" s="15"/>
+      <c r="C13" s="12"/>
       <c r="D13" s="2"/>
       <c r="E13" s="1"/>
     </row>
@@ -886,7 +886,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" s="1">
         <v>11</v>
@@ -948,7 +948,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
-      <c r="C22" s="15"/>
+      <c r="C22" s="12"/>
       <c r="D22" s="2"/>
       <c r="E22" s="1"/>
     </row>
@@ -959,7 +959,7 @@
       <c r="B23" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="12">
         <v>16</v>
       </c>
       <c r="D23" s="2"/>
@@ -972,7 +972,7 @@
       <c r="B24" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="12">
         <v>17</v>
       </c>
       <c r="D24" s="2"/>
@@ -985,7 +985,7 @@
       <c r="B25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="12">
         <v>18</v>
       </c>
       <c r="D25" s="2"/>
@@ -998,7 +998,7 @@
       <c r="B26" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="12">
         <v>19</v>
       </c>
       <c r="D26" s="2"/>
@@ -1011,7 +1011,7 @@
       <c r="B27" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="12">
         <v>20</v>
       </c>
       <c r="D27" s="2"/>
@@ -1024,7 +1024,7 @@
       <c r="B28" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="15">
+      <c r="C28" s="12">
         <v>21</v>
       </c>
       <c r="D28" s="2"/>
@@ -1037,7 +1037,7 @@
       <c r="B29" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C29" s="12">
         <v>22</v>
       </c>
       <c r="D29" s="2"/>
@@ -1050,7 +1050,7 @@
       <c r="B30" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="12">
         <v>23</v>
       </c>
       <c r="D30" s="2"/>
